--- a/management-templates/ProjectCharacterizationALFA.xlsx
+++ b/management-templates/ProjectCharacterizationALFA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilhermematos/Desktop/GitHub/APDC-2024-GREENWAY/management-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F25BE5B-E2DE-4B15-B781-A032619C1441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F88BA0-2539-0440-A6DF-1BE01850F0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="139">
   <si>
     <t>IDENTIFICAÇÃO / EQUIPA, PRODUTO, LOGOS E IDEAS-COMUNICACIONAIS CHAVE</t>
   </si>
@@ -469,7 +469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -508,6 +508,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1020,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1131,6 +1137,192 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1139,191 +1331,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2551,102 +2560,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="1" customWidth="1"/>
     <col min="12" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="119"/>
-    </row>
-    <row r="2" spans="1:13" ht="57.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="94"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="91" t="e" vm="1">
+      <c r="F2" s="61" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
-    </row>
-    <row r="3" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+    </row>
+    <row r="3" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="116"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="114" t="e" vm="1">
+      <c r="F3" s="98" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="86"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -2661,25 +2670,25 @@
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
+    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="109"/>
-    </row>
-    <row r="6" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="100" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="78" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -2703,8 +2712,8 @@
       <c r="L6" s="12"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="51.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="101"/>
+    <row r="7" spans="1:13" ht="51.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="79"/>
       <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
@@ -2722,42 +2731,42 @@
       <c r="L7" s="17"/>
       <c r="M7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="72"/>
+    </row>
+    <row r="9" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="113"/>
-    </row>
-    <row r="10" spans="1:13" ht="189" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="93"/>
+    </row>
+    <row r="10" spans="1:13" ht="189" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -2789,8 +2798,8 @@
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="1:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="96"/>
+    <row r="11" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
       <c r="B11" s="22" t="s">
         <v>29</v>
       </c>
@@ -2810,7 +2819,7 @@
       <c r="L11" s="23"/>
       <c r="M11" s="25"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -2825,24 +2834,24 @@
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+    <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="77"/>
-    </row>
-    <row r="14" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="89"/>
+    </row>
+    <row r="14" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>32</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>45</v>
       </c>
@@ -2900,7 +2909,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
         <v>46</v>
       </c>
@@ -2917,7 +2926,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>47</v>
       </c>
@@ -2934,7 +2943,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
         <v>48</v>
       </c>
@@ -2951,7 +2960,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
         <v>49</v>
       </c>
@@ -2968,7 +2977,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>50</v>
       </c>
@@ -2985,7 +2994,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>51</v>
       </c>
@@ -3002,7 +3011,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -3017,193 +3026,193 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
     </row>
-    <row r="23" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="107" t="s">
+    <row r="23" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="109"/>
-    </row>
-    <row r="24" spans="1:13" ht="51.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="86"/>
+    </row>
+    <row r="24" spans="1:13" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="106"/>
-    </row>
-    <row r="25" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="83"/>
+    </row>
+    <row r="25" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
       <c r="K25" s="73"/>
-      <c r="L25" s="71"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="74"/>
     </row>
-    <row r="26" spans="1:13" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
       <c r="K26" s="73"/>
-      <c r="L26" s="71"/>
+      <c r="L26" s="68"/>
       <c r="M26" s="74"/>
     </row>
-    <row r="27" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
       <c r="K27" s="73"/>
-      <c r="L27" s="71"/>
+      <c r="L27" s="68"/>
       <c r="M27" s="74"/>
     </row>
-    <row r="28" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
       <c r="K28" s="73"/>
-      <c r="L28" s="71"/>
+      <c r="L28" s="68"/>
       <c r="M28" s="74"/>
     </row>
-    <row r="29" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
       <c r="K29" s="73"/>
-      <c r="L29" s="71"/>
+      <c r="L29" s="68"/>
       <c r="M29" s="74"/>
     </row>
-    <row r="30" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
       <c r="K30" s="73"/>
-      <c r="L30" s="71"/>
+      <c r="L30" s="68"/>
       <c r="M30" s="74"/>
     </row>
-    <row r="31" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
       <c r="K31" s="73"/>
-      <c r="L31" s="71"/>
+      <c r="L31" s="68"/>
       <c r="M31" s="74"/>
     </row>
-    <row r="32" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="82"/>
-    </row>
-    <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="107"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -3218,24 +3227,24 @@
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
     </row>
-    <row r="34" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="75" t="s">
+    <row r="34" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="77"/>
-    </row>
-    <row r="35" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="89"/>
+    </row>
+    <row r="35" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>71</v>
       </c>
@@ -3276,24 +3285,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="67"/>
-    </row>
-    <row r="37" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="112"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="115"/>
+    </row>
+    <row r="37" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38"/>
       <c r="B37" s="39"/>
       <c r="C37" s="38"/>
@@ -3308,24 +3317,24 @@
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
     </row>
-    <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58" t="s">
+    <row r="38" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="60"/>
-    </row>
-    <row r="39" spans="1:13" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="77"/>
+    </row>
+    <row r="39" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>86</v>
       </c>
@@ -3362,14 +3371,16 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="120" t="s">
+        <v>87</v>
+      </c>
       <c r="D40" s="18"/>
       <c r="E40" s="21" t="s">
         <v>88</v>
@@ -3399,7 +3410,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>91</v>
       </c>
@@ -3438,7 +3449,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>92</v>
       </c>
@@ -3475,7 +3486,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>44</v>
       </c>
@@ -3492,24 +3503,24 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="58" t="s">
+    <row r="44" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="60"/>
-    </row>
-    <row r="45" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="77"/>
+    </row>
+    <row r="45" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
@@ -3524,7 +3535,7 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
         <v>44</v>
       </c>
@@ -3541,24 +3552,24 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="58" t="s">
+    <row r="47" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="60"/>
-    </row>
-    <row r="48" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="77"/>
+    </row>
+    <row r="48" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -3573,7 +3584,7 @@
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
     </row>
-    <row r="49" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>44</v>
       </c>
@@ -3590,24 +3601,24 @@
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
     </row>
-    <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58" t="s">
+    <row r="50" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="60"/>
-    </row>
-    <row r="51" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="77"/>
+    </row>
+    <row r="51" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>97</v>
       </c>
@@ -3648,7 +3659,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>44</v>
       </c>
@@ -3665,7 +3676,7 @@
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>
     </row>
-    <row r="53" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="40"/>
       <c r="B53" s="40"/>
       <c r="C53" s="41"/>
@@ -3680,7 +3691,7 @@
       <c r="L53" s="40"/>
       <c r="M53" s="40"/>
     </row>
-    <row r="54" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
@@ -3695,24 +3706,24 @@
       <c r="L54" s="42"/>
       <c r="M54" s="42"/>
     </row>
-    <row r="55" spans="1:13" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="63"/>
-    </row>
-    <row r="56" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="109"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="110"/>
+      <c r="L55" s="110"/>
+      <c r="M55" s="111"/>
+    </row>
+    <row r="56" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="38"/>
       <c r="B56" s="44"/>
       <c r="C56" s="38"/>
@@ -3727,24 +3738,24 @@
       <c r="L56" s="44"/>
       <c r="M56" s="44"/>
     </row>
-    <row r="57" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="58" t="s">
+    <row r="57" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="60"/>
-    </row>
-    <row r="58" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="77"/>
+    </row>
+    <row r="58" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>99</v>
       </c>
@@ -3781,7 +3792,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>100</v>
       </c>
@@ -3818,7 +3829,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="46" t="s">
         <v>101</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
         <v>102</v>
       </c>
@@ -3892,7 +3903,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
         <v>44</v>
       </c>
@@ -3909,7 +3920,7 @@
       <c r="L62" s="47"/>
       <c r="M62" s="47"/>
     </row>
-    <row r="63" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
       <c r="B63" s="47"/>
       <c r="C63" s="18"/>
@@ -3924,24 +3935,24 @@
       <c r="L63" s="47"/>
       <c r="M63" s="47"/>
     </row>
-    <row r="64" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="58" t="s">
+    <row r="64" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="60"/>
-    </row>
-    <row r="65" spans="1:13" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="76"/>
+      <c r="M64" s="77"/>
+    </row>
+    <row r="65" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
         <v>104</v>
       </c>
@@ -3980,7 +3991,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
         <v>105</v>
       </c>
@@ -4019,7 +4030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
         <v>106</v>
       </c>
@@ -4058,7 +4069,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
         <v>107</v>
       </c>
@@ -4097,7 +4108,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
         <v>108</v>
       </c>
@@ -4136,7 +4147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
         <v>44</v>
       </c>
@@ -4157,7 +4168,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
       <c r="B71" s="47"/>
       <c r="C71" s="18"/>
@@ -4172,24 +4183,24 @@
       <c r="L71" s="47"/>
       <c r="M71" s="47"/>
     </row>
-    <row r="72" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="58" t="s">
+    <row r="72" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="60"/>
-    </row>
-    <row r="73" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="76"/>
+      <c r="K72" s="76"/>
+      <c r="L72" s="76"/>
+      <c r="M72" s="77"/>
+    </row>
+    <row r="73" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
         <v>109</v>
       </c>
@@ -4226,7 +4237,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
         <v>110</v>
       </c>
@@ -4265,7 +4276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
         <v>111</v>
       </c>
@@ -4304,7 +4315,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
         <v>112</v>
       </c>
@@ -4343,7 +4354,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
         <v>113</v>
       </c>
@@ -4382,7 +4393,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
         <v>44</v>
       </c>
@@ -4399,39 +4410,39 @@
       <c r="L78" s="47"/>
       <c r="M78" s="47"/>
     </row>
-    <row r="79" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="57"/>
-    </row>
-    <row r="80" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="58" t="s">
+    <row r="79" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="116"/>
+      <c r="B79" s="117"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="117"/>
+      <c r="E79" s="117"/>
+      <c r="F79" s="117"/>
+      <c r="G79" s="117"/>
+      <c r="H79" s="117"/>
+      <c r="I79" s="117"/>
+      <c r="J79" s="117"/>
+      <c r="K79" s="118"/>
+      <c r="L79" s="117"/>
+      <c r="M79" s="119"/>
+    </row>
+    <row r="80" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="60"/>
-    </row>
-    <row r="81" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76"/>
+      <c r="K80" s="76"/>
+      <c r="L80" s="76"/>
+      <c r="M80" s="77"/>
+    </row>
+    <row r="81" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -4446,7 +4457,7 @@
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
     </row>
-    <row r="82" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
         <v>44</v>
       </c>
@@ -4463,7 +4474,7 @@
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
     </row>
-    <row r="83" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -4478,24 +4489,24 @@
       <c r="L83" s="39"/>
       <c r="M83" s="39"/>
     </row>
-    <row r="84" spans="1:13" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="63"/>
-    </row>
-    <row r="85" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="109"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="110"/>
+      <c r="E84" s="110"/>
+      <c r="F84" s="110"/>
+      <c r="G84" s="110"/>
+      <c r="H84" s="110"/>
+      <c r="I84" s="110"/>
+      <c r="J84" s="110"/>
+      <c r="K84" s="110"/>
+      <c r="L84" s="110"/>
+      <c r="M84" s="111"/>
+    </row>
+    <row r="85" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="38"/>
       <c r="B85" s="44"/>
       <c r="C85" s="38"/>
@@ -4510,24 +4521,24 @@
       <c r="L85" s="44"/>
       <c r="M85" s="44"/>
     </row>
-    <row r="86" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="58" t="s">
+    <row r="86" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="60"/>
-    </row>
-    <row r="87" spans="1:13" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="76"/>
+      <c r="L86" s="76"/>
+      <c r="M86" s="77"/>
+    </row>
+    <row r="87" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
         <v>115</v>
       </c>
@@ -4566,7 +4577,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
         <v>116</v>
       </c>
@@ -4605,7 +4616,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
         <v>44</v>
       </c>
@@ -4622,24 +4633,24 @@
       <c r="L89" s="47"/>
       <c r="M89" s="47"/>
     </row>
-    <row r="90" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="58" t="s">
+    <row r="90" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="59"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="60"/>
-    </row>
-    <row r="91" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="76"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="76"/>
+      <c r="K90" s="76"/>
+      <c r="L90" s="76"/>
+      <c r="M90" s="77"/>
+    </row>
+    <row r="91" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
         <v>117</v>
       </c>
@@ -4678,7 +4689,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18"/>
       <c r="B92" s="47"/>
       <c r="C92" s="18"/>
@@ -4693,7 +4704,7 @@
       <c r="L92" s="47"/>
       <c r="M92" s="47"/>
     </row>
-    <row r="93" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
         <v>44</v>
       </c>
@@ -4710,24 +4721,24 @@
       <c r="L93" s="47"/>
       <c r="M93" s="47"/>
     </row>
-    <row r="94" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="58" t="s">
+    <row r="94" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="59"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="60"/>
-    </row>
-    <row r="95" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="76"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="76"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="76"/>
+      <c r="K94" s="76"/>
+      <c r="L94" s="76"/>
+      <c r="M94" s="77"/>
+    </row>
+    <row r="95" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18"/>
       <c r="B95" s="47"/>
       <c r="C95" s="47"/>
@@ -4742,7 +4753,7 @@
       <c r="L95" s="47"/>
       <c r="M95" s="47"/>
     </row>
-    <row r="96" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
         <v>44</v>
       </c>
@@ -4759,24 +4770,24 @@
       <c r="L96" s="47"/>
       <c r="M96" s="47"/>
     </row>
-    <row r="97" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="58" t="s">
+    <row r="97" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="59"/>
-      <c r="M97" s="60"/>
-    </row>
-    <row r="98" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="76"/>
+      <c r="I97" s="76"/>
+      <c r="J97" s="76"/>
+      <c r="K97" s="76"/>
+      <c r="L97" s="76"/>
+      <c r="M97" s="77"/>
+    </row>
+    <row r="98" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
         <v>118</v>
       </c>
@@ -4817,7 +4828,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
         <v>44</v>
       </c>
@@ -4834,7 +4845,7 @@
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
     </row>
-    <row r="100" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -4849,24 +4860,24 @@
       <c r="L100" s="39"/>
       <c r="M100" s="39"/>
     </row>
-    <row r="101" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B101" s="61"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="62"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
-      <c r="K101" s="62"/>
-      <c r="L101" s="62"/>
-      <c r="M101" s="63"/>
-    </row>
-    <row r="102" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="109"/>
+      <c r="C101" s="110"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="110"/>
+      <c r="F101" s="110"/>
+      <c r="G101" s="110"/>
+      <c r="H101" s="110"/>
+      <c r="I101" s="110"/>
+      <c r="J101" s="110"/>
+      <c r="K101" s="110"/>
+      <c r="L101" s="110"/>
+      <c r="M101" s="111"/>
+    </row>
+    <row r="102" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="38"/>
       <c r="B102" s="44"/>
       <c r="C102" s="38"/>
@@ -4881,24 +4892,24 @@
       <c r="L102" s="44"/>
       <c r="M102" s="44"/>
     </row>
-    <row r="103" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="58" t="s">
+    <row r="103" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B103" s="59"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="59"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="60"/>
-    </row>
-    <row r="104" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="76"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
+      <c r="K103" s="76"/>
+      <c r="L103" s="76"/>
+      <c r="M103" s="77"/>
+    </row>
+    <row r="104" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
         <v>120</v>
       </c>
@@ -4935,7 +4946,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
         <v>121</v>
       </c>
@@ -4972,7 +4983,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
         <v>122</v>
       </c>
@@ -5009,7 +5020,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
         <v>123</v>
       </c>
@@ -5046,7 +5057,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
         <v>124</v>
       </c>
@@ -5083,7 +5094,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
         <v>125</v>
       </c>
@@ -5120,7 +5131,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
         <v>126</v>
       </c>
@@ -5157,7 +5168,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
         <v>127</v>
       </c>
@@ -5194,7 +5205,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
         <v>128</v>
       </c>
@@ -5231,7 +5242,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
         <v>44</v>
       </c>
@@ -5248,24 +5259,24 @@
       <c r="L113" s="47"/>
       <c r="M113" s="47"/>
     </row>
-    <row r="114" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="58" t="s">
+    <row r="114" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B114" s="59"/>
-      <c r="C114" s="59"/>
-      <c r="D114" s="59"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="59"/>
-      <c r="I114" s="59"/>
-      <c r="J114" s="59"/>
-      <c r="K114" s="59"/>
-      <c r="L114" s="59"/>
-      <c r="M114" s="60"/>
-    </row>
-    <row r="115" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="76"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="77"/>
+    </row>
+    <row r="115" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18"/>
       <c r="B115" s="47"/>
       <c r="C115" s="18"/>
@@ -5280,7 +5291,7 @@
       <c r="L115" s="47"/>
       <c r="M115" s="47"/>
     </row>
-    <row r="116" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
         <v>44</v>
       </c>
@@ -5297,24 +5308,24 @@
       <c r="L116" s="47"/>
       <c r="M116" s="47"/>
     </row>
-    <row r="117" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="58" t="s">
+    <row r="117" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B117" s="59"/>
-      <c r="C117" s="59"/>
-      <c r="D117" s="59"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="59"/>
-      <c r="K117" s="59"/>
-      <c r="L117" s="59"/>
-      <c r="M117" s="60"/>
-    </row>
-    <row r="118" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="76"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="76"/>
+      <c r="E117" s="76"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="76"/>
+      <c r="I117" s="76"/>
+      <c r="J117" s="76"/>
+      <c r="K117" s="76"/>
+      <c r="L117" s="76"/>
+      <c r="M117" s="77"/>
+    </row>
+    <row r="118" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18"/>
       <c r="B118" s="47"/>
       <c r="C118" s="47"/>
@@ -5329,7 +5340,7 @@
       <c r="L118" s="47"/>
       <c r="M118" s="47"/>
     </row>
-    <row r="119" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
         <v>44</v>
       </c>
@@ -5346,24 +5357,24 @@
       <c r="L119" s="47"/>
       <c r="M119" s="47"/>
     </row>
-    <row r="120" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="58" t="s">
+    <row r="120" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="59"/>
-      <c r="C120" s="59"/>
-      <c r="D120" s="59"/>
-      <c r="E120" s="59"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="59"/>
-      <c r="H120" s="59"/>
-      <c r="I120" s="59"/>
-      <c r="J120" s="59"/>
-      <c r="K120" s="59"/>
-      <c r="L120" s="59"/>
-      <c r="M120" s="60"/>
-    </row>
-    <row r="121" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="76"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="76"/>
+      <c r="I120" s="76"/>
+      <c r="J120" s="76"/>
+      <c r="K120" s="76"/>
+      <c r="L120" s="76"/>
+      <c r="M120" s="77"/>
+    </row>
+    <row r="121" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -5378,7 +5389,7 @@
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>
     </row>
-    <row r="122" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
         <v>44</v>
       </c>
@@ -5395,7 +5406,7 @@
       <c r="L122" s="17"/>
       <c r="M122" s="17"/>
     </row>
-    <row r="123" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="39"/>
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
@@ -5410,148 +5421,148 @@
       <c r="L123" s="39"/>
       <c r="M123" s="39"/>
     </row>
-    <row r="124" spans="1:13" ht="57.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="68" t="s">
+      <c r="B124" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C124" s="69"/>
-      <c r="D124" s="69"/>
-      <c r="E124" s="68" t="s">
+      <c r="C124" s="102"/>
+      <c r="D124" s="102"/>
+      <c r="E124" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="68" t="s">
+      <c r="F124" s="102"/>
+      <c r="G124" s="102"/>
+      <c r="H124" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="I124" s="69"/>
-      <c r="J124" s="69"/>
-      <c r="K124" s="68" t="s">
+      <c r="I124" s="102"/>
+      <c r="J124" s="102"/>
+      <c r="K124" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="L124" s="69"/>
-      <c r="M124" s="69"/>
-    </row>
-    <row r="125" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L124" s="102"/>
+      <c r="M124" s="102"/>
+    </row>
+    <row r="125" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B125" s="72" t="s">
+      <c r="B125" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="C125" s="71"/>
-      <c r="D125" s="71"/>
-      <c r="E125" s="79" t="s">
+      <c r="C125" s="68"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="F125" s="71"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="72" t="s">
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="I125" s="71"/>
-      <c r="J125" s="71"/>
-      <c r="K125" s="83" t="s">
+      <c r="I125" s="68"/>
+      <c r="J125" s="68"/>
+      <c r="K125" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="L125" s="71"/>
-      <c r="M125" s="71"/>
-    </row>
-    <row r="126" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L125" s="68"/>
+      <c r="M125" s="68"/>
+    </row>
+    <row r="126" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B126" s="72" t="s">
+      <c r="B126" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C126" s="71"/>
-      <c r="D126" s="71"/>
-      <c r="E126" s="72" t="s">
+      <c r="C126" s="68"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="71"/>
-      <c r="J126" s="71"/>
-      <c r="K126" s="79" t="s">
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="68"/>
+      <c r="I126" s="68"/>
+      <c r="J126" s="68"/>
+      <c r="K126" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="L126" s="71"/>
-      <c r="M126" s="71"/>
-    </row>
-    <row r="127" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L126" s="68"/>
+      <c r="M126" s="68"/>
+    </row>
+    <row r="127" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B127" s="72" t="s">
+      <c r="B127" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C127" s="71"/>
-      <c r="D127" s="71"/>
-      <c r="E127" s="71"/>
-      <c r="F127" s="71"/>
-      <c r="G127" s="71"/>
-      <c r="H127" s="71"/>
-      <c r="I127" s="71"/>
-      <c r="J127" s="71"/>
-      <c r="K127" s="70"/>
-      <c r="L127" s="71"/>
-      <c r="M127" s="71"/>
-    </row>
-    <row r="128" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="68"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
+      <c r="H127" s="68"/>
+      <c r="I127" s="68"/>
+      <c r="J127" s="68"/>
+      <c r="K127" s="97"/>
+      <c r="L127" s="68"/>
+      <c r="M127" s="68"/>
+    </row>
+    <row r="128" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B128" s="71"/>
-      <c r="C128" s="71"/>
-      <c r="D128" s="71"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="71"/>
-      <c r="J128" s="71"/>
-      <c r="K128" s="70"/>
-      <c r="L128" s="71"/>
-      <c r="M128" s="71"/>
-    </row>
-    <row r="129" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="68"/>
+      <c r="C128" s="68"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="68"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
+      <c r="H128" s="68"/>
+      <c r="I128" s="68"/>
+      <c r="J128" s="68"/>
+      <c r="K128" s="97"/>
+      <c r="L128" s="68"/>
+      <c r="M128" s="68"/>
+    </row>
+    <row r="129" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="71"/>
-      <c r="C129" s="71"/>
-      <c r="D129" s="71"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="71"/>
-      <c r="J129" s="71"/>
-      <c r="K129" s="70"/>
-      <c r="L129" s="71"/>
-      <c r="M129" s="71"/>
-    </row>
-    <row r="130" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="68"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="68"/>
+      <c r="I129" s="68"/>
+      <c r="J129" s="68"/>
+      <c r="K129" s="97"/>
+      <c r="L129" s="68"/>
+      <c r="M129" s="68"/>
+    </row>
+    <row r="130" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="40"/>
-      <c r="B130" s="78"/>
-      <c r="C130" s="78"/>
-      <c r="D130" s="78"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="78"/>
-      <c r="G130" s="78"/>
-      <c r="H130" s="78"/>
-      <c r="I130" s="78"/>
-      <c r="J130" s="78"/>
-      <c r="K130" s="102"/>
-      <c r="L130" s="78"/>
-      <c r="M130" s="78"/>
-    </row>
-    <row r="131" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="70"/>
+      <c r="F130" s="70"/>
+      <c r="G130" s="70"/>
+      <c r="H130" s="70"/>
+      <c r="I130" s="70"/>
+      <c r="J130" s="70"/>
+      <c r="K130" s="108"/>
+      <c r="L130" s="70"/>
+      <c r="M130" s="70"/>
+    </row>
+    <row r="131" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="51"/>
       <c r="B131" s="52"/>
       <c r="C131" s="52"/>
@@ -5568,25 +5579,41 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H125:J125"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="A103:M103"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="A72:M72"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A57:M57"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B36:M36"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="A79:M79"/>
+    <mergeCell ref="A114:M114"/>
+    <mergeCell ref="A117:M117"/>
+    <mergeCell ref="B101:M101"/>
+    <mergeCell ref="A97:M97"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="A86:M86"/>
+    <mergeCell ref="A94:M94"/>
+    <mergeCell ref="B84:M84"/>
+    <mergeCell ref="A80:M80"/>
+    <mergeCell ref="K127:M127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="K126:M126"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="K128:M128"/>
+    <mergeCell ref="B55:M55"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="E128:G128"/>
     <mergeCell ref="H129:J129"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="B31:M31"/>
@@ -5603,44 +5630,28 @@
     <mergeCell ref="B124:D124"/>
     <mergeCell ref="B29:M29"/>
     <mergeCell ref="B126:D126"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="A103:M103"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="A72:M72"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="A57:M57"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B125:D125"/>
     <mergeCell ref="K125:M125"/>
     <mergeCell ref="A44:M44"/>
     <mergeCell ref="E125:G125"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="K126:M126"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="K128:M128"/>
-    <mergeCell ref="B55:M55"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="K127:M127"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="A64:M64"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="B36:M36"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="A79:M79"/>
-    <mergeCell ref="A114:M114"/>
-    <mergeCell ref="A117:M117"/>
-    <mergeCell ref="B101:M101"/>
-    <mergeCell ref="A97:M97"/>
-    <mergeCell ref="A90:M90"/>
-    <mergeCell ref="A86:M86"/>
-    <mergeCell ref="A94:M94"/>
-    <mergeCell ref="B84:M84"/>
-    <mergeCell ref="A80:M80"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
